--- a/stockanly.xlsx
+++ b/stockanly.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="14">
   <si>
     <t>时间</t>
   </si>
@@ -59,9 +59,6 @@
   <si>
     <t>每股盈利：</t>
   </si>
-  <si>
-    <t>T：</t>
-  </si>
 </sst>
 </file>
 
@@ -242,6 +239,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -254,12 +263,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -321,12 +324,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -571,7 +568,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -595,16 +592,16 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -613,30 +610,30 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -658,7 +655,7 @@
     <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -695,26 +692,29 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1038,7 +1038,11 @@
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="11.5" style="1"/>
-    <col min="3" max="11" width="9" style="1"/>
+    <col min="3" max="4" width="9" style="1"/>
+    <col min="5" max="5" width="9" style="2"/>
+    <col min="6" max="9" width="9" style="1"/>
+    <col min="10" max="10" width="9" style="3"/>
+    <col min="11" max="11" width="9" style="1"/>
     <col min="12" max="12" width="13.625" style="1" customWidth="1"/>
     <col min="13" max="13" width="13.75" style="1"/>
     <col min="14" max="14" width="9" style="1"/>
@@ -1056,7 +1060,7 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
       <c r="G1" s="1" t="s">
@@ -1068,13 +1072,13 @@
       <c r="I1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="M1" s="3">
+      <c r="M1" s="5">
         <v>10000</v>
       </c>
     </row>
@@ -1082,329 +1086,326 @@
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="4">
         <v>45217</v>
       </c>
       <c r="C2" s="1">
-        <v>100</v>
+        <v>10000</v>
       </c>
       <c r="D2" s="1">
-        <v>3</v>
-      </c>
-      <c r="E2" s="1">
+        <v>3.531</v>
+      </c>
+      <c r="E2" s="2">
         <f>$C2*$D2</f>
-        <v>300</v>
+        <v>35310</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="H2" s="1">
-        <v>50</v>
+        <v>30000</v>
       </c>
       <c r="I2" s="1">
-        <v>4</v>
-      </c>
-      <c r="J2" s="1">
+        <v>3.45</v>
+      </c>
+      <c r="J2" s="3">
         <f>$H2*$I2</f>
-        <v>200</v>
-      </c>
-      <c r="L2" s="4" t="s">
+        <v>103500</v>
+      </c>
+      <c r="L2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="M2" s="4">
+      <c r="M2" s="6">
         <f>D2</f>
-        <v>3</v>
+        <v>3.531</v>
       </c>
     </row>
     <row r="3" spans="2:13">
-      <c r="B3" s="2">
+      <c r="B3" s="4">
         <v>45230</v>
       </c>
       <c r="C3" s="1">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="D3" s="1">
-        <v>2</v>
-      </c>
-      <c r="E3" s="1">
+        <v>3.34</v>
+      </c>
+      <c r="E3" s="2">
         <f t="shared" ref="E3:E26" si="0">$C3*$D3</f>
-        <v>0</v>
-      </c>
-      <c r="J3" s="1">
+        <v>66800</v>
+      </c>
+      <c r="J3" s="3">
         <f t="shared" ref="J3:J27" si="1">$H3*$I3</f>
         <v>0</v>
       </c>
-      <c r="L3" s="5" t="s">
+      <c r="L3" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="M3" s="5">
-        <f>M1-SUM(E:E)+SUM(J:J)</f>
-        <v>9900</v>
+      <c r="M3" s="7">
+        <f>M1-SUM(E:E)+SUM(J:J)+M7*M9</f>
+        <v>11390</v>
       </c>
     </row>
     <row r="4" spans="5:10">
-      <c r="E4" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J4" s="1">
+      <c r="E4" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J4" s="3">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="5:10">
-      <c r="E5" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J5" s="1">
+      <c r="E5" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J5" s="3">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="5:10">
-      <c r="E6" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J6" s="1">
+      <c r="E6" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J6" s="3">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="5:13">
-      <c r="E7" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J7" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L7" s="6" t="s">
+      <c r="E7" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J7" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L7" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M7" s="6">
+      <c r="M7" s="3">
         <f>SUM(C:C)-SUM(H:H)</f>
-        <v>50</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="5:13">
-      <c r="E8" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J8" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L8" s="6" t="s">
+      <c r="E8" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J8" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L8" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M8" s="6">
-        <f>SUM(E:E)-SUM(J:J)</f>
-        <v>100</v>
+      <c r="M8" s="3">
+        <f>SUM(E:E)</f>
+        <v>102110</v>
       </c>
     </row>
     <row r="9" spans="5:13">
-      <c r="E9" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J9" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L9" s="6" t="s">
+      <c r="E9" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J9" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L9" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="M9" s="6">
-        <f>IF(M7&gt;0,ABS(M8)/M7,"0")</f>
-        <v>2</v>
+      <c r="M9" s="3" t="str">
+        <f>IF(M7&gt;0,ABS(M8)/SUM(C:C),"0")</f>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="5:10">
-      <c r="E10" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J10" s="1">
+      <c r="E10" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J10" s="3">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="5:10">
-      <c r="E11" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J11" s="1">
+      <c r="E11" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J11" s="3">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="5:10">
-      <c r="E12" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J12" s="1">
+      <c r="E12" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J12" s="3">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="5:10">
-      <c r="E13" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J13" s="1">
+      <c r="E13" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J13" s="3">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="5:10">
-      <c r="E14" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J14" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="5:12">
-      <c r="E15" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J15" s="1">
+      <c r="E14" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="5:13">
+      <c r="E15" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J15" s="3">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="L15" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="M15" s="1">
+        <f>M9-M2</f>
+        <v>-3.531</v>
+      </c>
     </row>
     <row r="16" spans="5:10">
-      <c r="E16" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J16" s="1">
+      <c r="E16" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J16" s="3">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="5:10">
-      <c r="E17" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J17" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="5:13">
-      <c r="E18" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J18" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L18" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="M18" s="1">
-        <f>35310*0.0512</f>
-        <v>1807.872</v>
+      <c r="E17" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J17" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="5:10">
+      <c r="E18" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J18" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="5:10">
-      <c r="E19" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J19" s="1">
+      <c r="E19" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J19" s="3">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="5:10">
-      <c r="E20" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J20" s="1">
+      <c r="E20" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="5:10">
-      <c r="E21" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J21" s="1">
+      <c r="E21" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J21" s="3">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="5:10">
-      <c r="E22" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J22" s="1">
+      <c r="E22" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J22" s="3">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="5:10">
-      <c r="E23" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J23" s="1">
+      <c r="E23" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J23" s="3">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="5:10">
-      <c r="E24" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J24" s="1">
+      <c r="E24" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J24" s="3">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="5:10">
-      <c r="E25" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J25" s="1">
+      <c r="E25" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J25" s="3">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="5:10">
-      <c r="E26" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J26" s="1">
+      <c r="E26" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J26" s="3">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="10:10">
-      <c r="J27" s="1">
+      <c r="J27" s="3">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>

--- a/stockanly.xlsx
+++ b/stockanly.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="19">
   <si>
     <t>时间</t>
   </si>
@@ -33,19 +33,34 @@
     <t>卖出总价</t>
   </si>
   <si>
+    <t>指标</t>
+  </si>
+  <si>
+    <t>数值</t>
+  </si>
+  <si>
+    <t>买入</t>
+  </si>
+  <si>
     <t>投入：</t>
   </si>
   <si>
-    <t>买入</t>
-  </si>
-  <si>
-    <t>卖出</t>
+    <t>钱包：</t>
+  </si>
+  <si>
+    <t>流动资金：</t>
   </si>
   <si>
     <t>原始股单价：</t>
   </si>
   <si>
-    <t>钱包：</t>
+    <t>盈亏：</t>
+  </si>
+  <si>
+    <t>每股盈利：</t>
+  </si>
+  <si>
+    <t>盈亏比：</t>
   </si>
   <si>
     <t>总股数：</t>
@@ -57,7 +72,7 @@
     <t>目前持仓单价：</t>
   </si>
   <si>
-    <t>每股盈利：</t>
+    <t>现价：</t>
   </si>
 </sst>
 </file>
@@ -70,10 +85,16 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -230,7 +251,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="39">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -239,138 +260,162 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -436,10 +481,36 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="11">
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -562,159 +633,186 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1031,386 +1129,427 @@
   <dimension ref="A1:M27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="11.5" style="1"/>
-    <col min="3" max="4" width="9" style="1"/>
-    <col min="5" max="5" width="9" style="2"/>
-    <col min="6" max="9" width="9" style="1"/>
-    <col min="10" max="10" width="9" style="3"/>
+    <col min="2" max="2" width="11.5" style="2"/>
+    <col min="3" max="4" width="9" style="3"/>
+    <col min="5" max="5" width="9" style="4"/>
+    <col min="6" max="6" width="9" style="5"/>
+    <col min="7" max="7" width="9" style="2"/>
+    <col min="8" max="9" width="9" style="3"/>
+    <col min="10" max="10" width="9" style="6"/>
     <col min="11" max="11" width="9" style="1"/>
     <col min="12" max="12" width="13.625" style="1" customWidth="1"/>
-    <col min="13" max="13" width="13.75" style="1"/>
+    <col min="13" max="13" width="15.75" style="1" customWidth="1"/>
     <col min="14" max="14" width="9" style="1"/>
     <col min="15" max="15" width="12.625" style="1"/>
     <col min="16" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:13">
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="H1" s="1" t="s">
+      <c r="G1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="L1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="M1" s="5">
-        <v>10000</v>
+      <c r="M1" s="8" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="4">
+        <v>7</v>
+      </c>
+      <c r="B2" s="7">
         <v>45217</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2" s="3">
         <v>10000</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2" s="3">
         <v>3.531</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2" s="4">
         <f>$C2*$D2</f>
         <v>35310</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H2" s="1">
-        <v>30000</v>
-      </c>
-      <c r="I2" s="1">
-        <v>3.45</v>
-      </c>
-      <c r="J2" s="3">
+      <c r="H2" s="3">
+        <v>0</v>
+      </c>
+      <c r="I2" s="3">
+        <v>3.5</v>
+      </c>
+      <c r="J2" s="6">
         <f>$H2*$I2</f>
-        <v>103500</v>
-      </c>
-      <c r="L2" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="L2" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="M2" s="6">
+      <c r="M2" s="9">
+        <v>500000</v>
+      </c>
+    </row>
+    <row r="3" spans="2:13">
+      <c r="B3" s="7">
+        <v>45230</v>
+      </c>
+      <c r="C3" s="3">
+        <v>20000</v>
+      </c>
+      <c r="D3" s="3">
+        <v>3.36</v>
+      </c>
+      <c r="E3" s="4">
+        <f t="shared" ref="E3:E26" si="0">$C3*$D3</f>
+        <v>67200</v>
+      </c>
+      <c r="J3" s="6">
+        <f t="shared" ref="J3:J27" si="1">$H3*$I3</f>
+        <v>0</v>
+      </c>
+      <c r="L3" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="M3" s="11">
+        <f>M2-SUM(E:E)+SUM(J:J)+M9*M13</f>
+        <v>498890</v>
+      </c>
+    </row>
+    <row r="4" spans="4:13">
+      <c r="D4" s="3">
+        <v>3.4</v>
+      </c>
+      <c r="E4" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J4" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L4" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="M4" s="11">
+        <f>M3-SUM(E:E)+SUM(J:J)</f>
+        <v>396380</v>
+      </c>
+    </row>
+    <row r="5" spans="5:13">
+      <c r="E5" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J5" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L5" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="M5" s="12">
         <f>D2</f>
         <v>3.531</v>
       </c>
     </row>
-    <row r="3" spans="2:13">
-      <c r="B3" s="4">
-        <v>45230</v>
-      </c>
-      <c r="C3" s="1">
-        <v>20000</v>
-      </c>
-      <c r="D3" s="1">
-        <v>3.34</v>
-      </c>
-      <c r="E3" s="2">
-        <f t="shared" ref="E3:E26" si="0">$C3*$D3</f>
-        <v>66800</v>
-      </c>
-      <c r="J3" s="3">
-        <f t="shared" ref="J3:J27" si="1">$H3*$I3</f>
-        <v>0</v>
-      </c>
-      <c r="L3" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="M3" s="7">
-        <f>M1-SUM(E:E)+SUM(J:J)+M7*M9</f>
-        <v>11390</v>
-      </c>
-    </row>
-    <row r="4" spans="5:10">
-      <c r="E4" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J4" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="5:10">
-      <c r="E5" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J5" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="5:10">
-      <c r="E6" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J6" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
+    <row r="6" spans="5:13">
+      <c r="E6" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J6" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L6" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="M6" s="13">
+        <f>M7*M9</f>
+        <v>-1110</v>
       </c>
     </row>
     <row r="7" spans="5:13">
-      <c r="E7" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J7" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L7" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="M7" s="3">
+      <c r="E7" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J7" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L7" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="M7" s="13">
+        <f>M13-M11</f>
+        <v>-0.0369999999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="5:13">
+      <c r="E8" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J8" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L8" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="M8" s="15">
+        <f>(M13-M11)/M11</f>
+        <v>-0.0108282118817676</v>
+      </c>
+    </row>
+    <row r="9" spans="5:13">
+      <c r="E9" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J9" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L9" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="M9" s="6">
         <f>SUM(C:C)-SUM(H:H)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="5:13">
-      <c r="E8" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J8" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L8" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="M8" s="3">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="10" spans="5:13">
+      <c r="E10" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J10" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L10" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="M10" s="6">
         <f>SUM(E:E)</f>
-        <v>102110</v>
-      </c>
-    </row>
-    <row r="9" spans="5:13">
-      <c r="E9" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J9" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L9" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="M9" s="3" t="str">
-        <f>IF(M7&gt;0,ABS(M8)/SUM(C:C),"0")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="5:10">
-      <c r="E10" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J10" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="5:10">
-      <c r="E11" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J11" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>102510</v>
+      </c>
+    </row>
+    <row r="11" spans="5:13">
+      <c r="E11" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J11" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L11" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="M11" s="6">
+        <f>IF(M9&gt;0,ABS(M10)/SUM(C:C),"0")</f>
+        <v>3.417</v>
       </c>
     </row>
     <row r="12" spans="5:10">
-      <c r="E12" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J12" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="5:10">
-      <c r="E13" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J13" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="E12" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J12" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="5:13">
+      <c r="E13" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J13" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L13" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="M13" s="16">
+        <v>3.38</v>
       </c>
     </row>
     <row r="14" spans="5:10">
-      <c r="E14" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J14" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="5:13">
-      <c r="E15" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J15" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L15" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="M15" s="1">
-        <f>M9-M2</f>
-        <v>-3.531</v>
+      <c r="E14" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J14" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="5:10">
+      <c r="E15" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J15" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="5:10">
-      <c r="E16" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J16" s="3">
+      <c r="E16" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J16" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="5:10">
-      <c r="E17" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J17" s="3">
+      <c r="E17" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J17" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="5:10">
-      <c r="E18" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J18" s="3">
+      <c r="E18" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J18" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="5:10">
-      <c r="E19" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J19" s="3">
+      <c r="E19" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J19" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="5:10">
-      <c r="E20" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J20" s="3">
+      <c r="E20" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J20" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="5:10">
-      <c r="E21" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J21" s="3">
+      <c r="E21" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J21" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="5:10">
-      <c r="E22" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J22" s="3">
+      <c r="E22" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J22" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="5:10">
-      <c r="E23" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J23" s="3">
+      <c r="E23" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J23" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="5:10">
-      <c r="E24" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J24" s="3">
+      <c r="E24" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J24" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="5:10">
-      <c r="E25" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J25" s="3">
+      <c r="E25" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J25" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="5:10">
-      <c r="E26" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J26" s="3">
+      <c r="E26" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J26" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="10:10">
-      <c r="J27" s="3">
+      <c r="J27" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
   </sheetData>
+  <sheetProtection sheet="1" objects="1"/>
+  <protectedRanges>
+    <protectedRange password="CE1E" sqref="C$1:D$1048576" name="区域1" securityDescriptor="O:WDG:WDD:"/>
+    <protectedRange password="CE1E" sqref="L13:M25" name="区域3"/>
+    <protectedRange password="CE1E" sqref="H$1:I$1048576" name="区域2"/>
+  </protectedRanges>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
@@ -1449,4 +1588,25 @@
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main" hasInvisiblePropRange="0">
+  <rangeList sheetStid="1" master="">
+    <arrUserId title="区域1" rangeCreator="" othersAccessPermission="edit"/>
+    <arrUserId title="区域3" rangeCreator="" othersAccessPermission="edit"/>
+    <arrUserId title="区域2" rangeCreator="" othersAccessPermission="edit"/>
+  </rangeList>
+  <rangeList sheetStid="2" master=""/>
+  <rangeList sheetStid="3" master=""/>
+</allowEditUser>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5607D9-04D2-4DE1-AC0E-A7772F01BC71}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/stockanly.xlsx
+++ b/stockanly.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="25">
   <si>
     <t>时间</t>
   </si>
@@ -30,6 +30,9 @@
     <t>买入总价</t>
   </si>
   <si>
+    <t>股票名称</t>
+  </si>
+  <si>
     <t>卖出总价</t>
   </si>
   <si>
@@ -42,18 +45,21 @@
     <t>买入</t>
   </si>
   <si>
+    <t>神农科技</t>
+  </si>
+  <si>
     <t>投入：</t>
   </si>
   <si>
+    <t>原始股单价：</t>
+  </si>
+  <si>
     <t>钱包：</t>
   </si>
   <si>
     <t>流动资金：</t>
   </si>
   <si>
-    <t>原始股单价：</t>
-  </si>
-  <si>
     <t>盈亏：</t>
   </si>
   <si>
@@ -72,7 +78,19 @@
     <t>目前持仓单价：</t>
   </si>
   <si>
+    <t>最小</t>
+  </si>
+  <si>
+    <t>最大</t>
+  </si>
+  <si>
+    <t>浮动</t>
+  </si>
+  <si>
     <t>现价：</t>
+  </si>
+  <si>
+    <t>开盘价：</t>
   </si>
 </sst>
 </file>
@@ -85,7 +103,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -94,14 +112,37 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -278,18 +319,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.8"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -302,6 +343,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -405,12 +452,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -633,140 +674,143 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -785,22 +829,40 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -812,7 +874,13 @@
     <xf numFmtId="10" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1126,428 +1194,469 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M27"/>
+  <dimension ref="A1:N27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="N15" sqref="N15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="11.375" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="11.5" style="2"/>
-    <col min="3" max="4" width="9" style="3"/>
-    <col min="5" max="5" width="9" style="4"/>
-    <col min="6" max="6" width="9" style="5"/>
-    <col min="7" max="7" width="9" style="2"/>
-    <col min="8" max="9" width="9" style="3"/>
-    <col min="10" max="10" width="9" style="6"/>
-    <col min="11" max="11" width="9" style="1"/>
-    <col min="12" max="12" width="13.625" style="1" customWidth="1"/>
-    <col min="13" max="13" width="15.75" style="1" customWidth="1"/>
-    <col min="14" max="14" width="9" style="1"/>
-    <col min="15" max="15" width="12.625" style="1"/>
-    <col min="16" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="11.375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="11.375" style="3" customWidth="1"/>
+    <col min="3" max="4" width="11.375" style="4" customWidth="1"/>
+    <col min="5" max="5" width="11.375" style="5" customWidth="1"/>
+    <col min="6" max="6" width="11.375" style="6" customWidth="1"/>
+    <col min="7" max="7" width="11.375" style="3" customWidth="1"/>
+    <col min="8" max="9" width="11.375" style="4" customWidth="1"/>
+    <col min="10" max="10" width="11.375" style="7" customWidth="1"/>
+    <col min="11" max="11" width="4.25" style="2" customWidth="1"/>
+    <col min="12" max="12" width="13.125" style="2" customWidth="1"/>
+    <col min="13" max="16384" width="11.375" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13">
-      <c r="B1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="3" t="s">
+    <row r="1" s="1" customFormat="1" ht="18.75" spans="2:13">
+      <c r="B1" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="H1" s="3" t="s">
+      <c r="F1" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="L1" s="8" t="s">
+      <c r="J1" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="M1" s="8" t="s">
+      <c r="L1" s="16" t="s">
         <v>6</v>
       </c>
+      <c r="M1" s="16" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="7">
+      <c r="A2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="12">
         <v>45217</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="4">
         <v>10000</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2" s="4">
         <v>3.531</v>
       </c>
-      <c r="E2" s="4">
+      <c r="E2" s="5">
         <f>$C2*$D2</f>
         <v>35310</v>
       </c>
-      <c r="H2" s="3">
-        <v>0</v>
-      </c>
-      <c r="I2" s="3">
-        <v>3.5</v>
-      </c>
-      <c r="J2" s="6">
+      <c r="F2" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" s="4">
+        <v>10000</v>
+      </c>
+      <c r="I2" s="4">
+        <v>3.4</v>
+      </c>
+      <c r="J2" s="7">
         <f>$H2*$I2</f>
-        <v>0</v>
-      </c>
-      <c r="L2" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="M2" s="9">
+        <v>34000</v>
+      </c>
+      <c r="L2" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="M2" s="17">
         <v>500000</v>
       </c>
     </row>
     <row r="3" spans="2:13">
-      <c r="B3" s="7">
+      <c r="B3" s="12">
         <v>45230</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="4">
         <v>20000</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="4">
         <v>3.36</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3" s="5">
         <f t="shared" ref="E3:E26" si="0">$C3*$D3</f>
         <v>67200</v>
       </c>
-      <c r="J3" s="6">
+      <c r="F3" s="14">
+        <v>300189</v>
+      </c>
+      <c r="J3" s="7">
         <f t="shared" ref="J3:J27" si="1">$H3*$I3</f>
         <v>0</v>
       </c>
-      <c r="L3" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="M3" s="11">
-        <f>M2-SUM(E:E)+SUM(J:J)+M9*M13</f>
-        <v>498890</v>
-      </c>
-    </row>
-    <row r="4" spans="4:13">
-      <c r="D4" s="3">
-        <v>3.4</v>
-      </c>
-      <c r="E4" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J4" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L4" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="M4" s="11">
-        <f>M3-SUM(E:E)+SUM(J:J)</f>
-        <v>396380</v>
-      </c>
-    </row>
-    <row r="5" spans="5:13">
-      <c r="E5" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J5" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L5" s="12" t="s">
+      <c r="L3" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="M5" s="12">
+      <c r="M3" s="18">
         <f>D2</f>
         <v>3.531</v>
       </c>
     </row>
+    <row r="4" spans="3:13">
+      <c r="C4" s="4">
+        <v>5000</v>
+      </c>
+      <c r="D4" s="4">
+        <v>3.35</v>
+      </c>
+      <c r="E4" s="5">
+        <f t="shared" si="0"/>
+        <v>16750</v>
+      </c>
+      <c r="J4" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L4" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="M4" s="19">
+        <f>M2-SUM(E:E)+SUM(J:J)+M9*M18</f>
+        <v>499740</v>
+      </c>
+    </row>
+    <row r="5" spans="5:13">
+      <c r="E5" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J5" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L5" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="M5" s="19">
+        <f>M4-SUM(E:E)+SUM(J:J)</f>
+        <v>414480</v>
+      </c>
+    </row>
     <row r="6" spans="5:13">
-      <c r="E6" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J6" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L6" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="M6" s="13">
+      <c r="E6" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J6" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L6" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="M6" s="20">
         <f>M7*M9</f>
-        <v>-1110</v>
+        <v>-185.714285714289</v>
       </c>
     </row>
     <row r="7" spans="5:13">
-      <c r="E7" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J7" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L7" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="M7" s="13">
-        <f>M13-M11</f>
-        <v>-0.0369999999999999</v>
+      <c r="E7" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J7" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L7" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="M7" s="20">
+        <f>M18-M11</f>
+        <v>-0.00742857142857156</v>
       </c>
     </row>
     <row r="8" spans="5:13">
-      <c r="E8" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J8" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L8" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="M8" s="15">
-        <f>(M13-M11)/M11</f>
-        <v>-0.0108282118817676</v>
+      <c r="E8" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J8" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L8" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="M8" s="22">
+        <f>(M18-M11)/M11</f>
+        <v>-0.00218011068254238</v>
       </c>
     </row>
     <row r="9" spans="5:13">
-      <c r="E9" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J9" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L9" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="M9" s="6">
+      <c r="E9" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J9" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L9" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="M9" s="7">
         <f>SUM(C:C)-SUM(H:H)</f>
-        <v>30000</v>
+        <v>25000</v>
       </c>
     </row>
     <row r="10" spans="5:13">
-      <c r="E10" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J10" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L10" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="M10" s="6">
+      <c r="E10" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J10" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="M10" s="7">
         <f>SUM(E:E)</f>
-        <v>102510</v>
+        <v>119260</v>
       </c>
     </row>
     <row r="11" spans="5:13">
-      <c r="E11" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J11" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L11" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="M11" s="6">
+      <c r="E11" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J11" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M11" s="7">
         <f>IF(M9&gt;0,ABS(M10)/SUM(C:C),"0")</f>
-        <v>3.417</v>
+        <v>3.40742857142857</v>
       </c>
     </row>
     <row r="12" spans="5:10">
-      <c r="E12" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J12" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="5:13">
-      <c r="E13" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J13" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L13" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="M13" s="16">
-        <v>3.38</v>
-      </c>
-    </row>
-    <row r="14" spans="5:10">
-      <c r="E14" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J14" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="E12" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J12" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="5:14">
+      <c r="E13" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J13" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L13" s="23"/>
+      <c r="M13" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="N13" s="23" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="5:14">
+      <c r="E14" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J14" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L14" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="M14" s="23">
+        <f>M19-M19*0.2</f>
+        <v>2.696</v>
+      </c>
+      <c r="N14" s="23">
+        <f>M19+M19*0.2</f>
+        <v>4.044</v>
       </c>
     </row>
     <row r="15" spans="5:10">
-      <c r="E15" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J15" s="6">
+      <c r="E15" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J15" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="5:10">
-      <c r="E16" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J16" s="6">
+      <c r="E16" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J16" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="5:10">
-      <c r="E17" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J17" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="5:10">
-      <c r="E18" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J18" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="5:10">
-      <c r="E19" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J19" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="E17" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J17" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="5:13">
+      <c r="E18" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J18" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L18" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="M18" s="24">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="19" spans="5:13">
+      <c r="E19" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J19" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L19" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="M19" s="25">
+        <v>3.37</v>
       </c>
     </row>
     <row r="20" spans="5:10">
-      <c r="E20" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J20" s="6">
+      <c r="E20" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J20" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="5:10">
-      <c r="E21" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J21" s="6">
+      <c r="E21" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J21" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="5:10">
-      <c r="E22" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J22" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="5:10">
-      <c r="E23" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J23" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="5:10">
-      <c r="E24" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J24" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="E22" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J22" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="5:14">
+      <c r="E23" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J23" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N23" s="2">
+        <f>2.7-3.37</f>
+        <v>-0.67</v>
+      </c>
+    </row>
+    <row r="24" spans="5:14">
+      <c r="E24" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J24" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N24" s="2">
+        <f>N23/3.37</f>
+        <v>-0.198813056379822</v>
       </c>
     </row>
     <row r="25" spans="5:10">
-      <c r="E25" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J25" s="6">
+      <c r="E25" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J25" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="5:10">
-      <c r="E26" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J26" s="6">
+      <c r="E26" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J26" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="10:10">
-      <c r="J27" s="6">
+      <c r="J27" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1"/>
+  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertRows="0" insertColumns="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <protectedRanges>
     <protectedRange password="CE1E" sqref="C$1:D$1048576" name="区域1" securityDescriptor="O:WDG:WDD:"/>
-    <protectedRange password="CE1E" sqref="L13:M25" name="区域3"/>
+    <protectedRange password="CE1E" sqref="L13:O33" name="区域3"/>
     <protectedRange password="CE1E" sqref="H$1:I$1048576" name="区域2"/>
   </protectedRanges>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/stockanly.xlsx
+++ b/stockanly.xlsx
@@ -804,7 +804,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -842,9 +842,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1197,7 +1194,7 @@
   <dimension ref="A1:N27"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="N15" sqref="N15"/>
+      <selection activeCell="M18" sqref="M18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.375" defaultRowHeight="13.5"/>
@@ -1240,13 +1237,13 @@
       <c r="I1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="15" t="s">
+      <c r="J1" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="L1" s="16" t="s">
+      <c r="L1" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="M1" s="16" t="s">
+      <c r="M1" s="15" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1261,29 +1258,29 @@
         <v>10000</v>
       </c>
       <c r="D2" s="4">
-        <v>3.531</v>
+        <v>3.53</v>
       </c>
       <c r="E2" s="5">
         <f>$C2*$D2</f>
-        <v>35310</v>
+        <v>35300</v>
       </c>
       <c r="F2" s="13" t="s">
         <v>9</v>
       </c>
       <c r="H2" s="4">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="I2" s="4">
         <v>3.4</v>
       </c>
       <c r="J2" s="7">
         <f>$H2*$I2</f>
-        <v>34000</v>
-      </c>
-      <c r="L2" s="17" t="s">
+        <v>68000</v>
+      </c>
+      <c r="L2" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="M2" s="17">
+      <c r="M2" s="16">
         <v>500000</v>
       </c>
     </row>
@@ -1301,42 +1298,48 @@
         <f t="shared" ref="E3:E26" si="0">$C3*$D3</f>
         <v>67200</v>
       </c>
-      <c r="F3" s="14">
+      <c r="F3" s="13">
         <v>300189</v>
+      </c>
+      <c r="H3" s="4">
+        <v>5000</v>
+      </c>
+      <c r="I3" s="4">
+        <v>3.42</v>
       </c>
       <c r="J3" s="7">
         <f t="shared" ref="J3:J27" si="1">$H3*$I3</f>
-        <v>0</v>
-      </c>
-      <c r="L3" s="18" t="s">
+        <v>17100</v>
+      </c>
+      <c r="L3" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="M3" s="18">
+      <c r="M3" s="17">
         <f>D2</f>
-        <v>3.531</v>
+        <v>3.53</v>
       </c>
     </row>
     <row r="4" spans="3:13">
       <c r="C4" s="4">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="D4" s="4">
-        <v>3.35</v>
+        <v>3.31</v>
       </c>
       <c r="E4" s="5">
         <f t="shared" si="0"/>
-        <v>16750</v>
+        <v>0</v>
       </c>
       <c r="J4" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L4" s="19" t="s">
+      <c r="L4" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="M4" s="19">
+      <c r="M4" s="18">
         <f>M2-SUM(E:E)+SUM(J:J)+M9*M18</f>
-        <v>499740</v>
+        <v>499700</v>
       </c>
     </row>
     <row r="5" spans="5:13">
@@ -1348,12 +1351,12 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L5" s="19" t="s">
+      <c r="L5" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="19">
+      <c r="M5" s="18">
         <f>M4-SUM(E:E)+SUM(J:J)</f>
-        <v>414480</v>
+        <v>482300</v>
       </c>
     </row>
     <row r="6" spans="5:13">
@@ -1365,12 +1368,12 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L6" s="20" t="s">
+      <c r="L6" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="M6" s="20">
+      <c r="M6" s="19">
         <f>M7*M9</f>
-        <v>-185.714285714289</v>
+        <v>16.6666666666671</v>
       </c>
     </row>
     <row r="7" spans="5:13">
@@ -1382,12 +1385,12 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L7" s="20" t="s">
+      <c r="L7" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="M7" s="20">
+      <c r="M7" s="19">
         <f>M18-M11</f>
-        <v>-0.00742857142857156</v>
+        <v>0.00333333333333341</v>
       </c>
     </row>
     <row r="8" spans="5:13">
@@ -1399,12 +1402,12 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L8" s="21" t="s">
+      <c r="L8" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="M8" s="22">
+      <c r="M8" s="21">
         <f>(M18-M11)/M11</f>
-        <v>-0.00218011068254238</v>
+        <v>0.000975609756097584</v>
       </c>
     </row>
     <row r="9" spans="5:13">
@@ -1421,7 +1424,7 @@
       </c>
       <c r="M9" s="7">
         <f>SUM(C:C)-SUM(H:H)</f>
-        <v>25000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="10" spans="5:13">
@@ -1438,7 +1441,7 @@
       </c>
       <c r="M10" s="7">
         <f>SUM(E:E)</f>
-        <v>119260</v>
+        <v>102500</v>
       </c>
     </row>
     <row r="11" spans="5:13">
@@ -1455,7 +1458,7 @@
       </c>
       <c r="M11" s="7">
         <f>IF(M9&gt;0,ABS(M10)/SUM(C:C),"0")</f>
-        <v>3.40742857142857</v>
+        <v>3.41666666666667</v>
       </c>
     </row>
     <row r="12" spans="5:10">
@@ -1477,11 +1480,11 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L13" s="23"/>
-      <c r="M13" s="23" t="s">
+      <c r="L13" s="22"/>
+      <c r="M13" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="N13" s="23" t="s">
+      <c r="N13" s="22" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1494,14 +1497,14 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L14" s="23" t="s">
+      <c r="L14" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="M14" s="23">
+      <c r="M14" s="22">
         <f>M19-M19*0.2</f>
         <v>2.696</v>
       </c>
-      <c r="N14" s="23">
+      <c r="N14" s="22">
         <f>M19+M19*0.2</f>
         <v>4.044</v>
       </c>
@@ -1545,11 +1548,11 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L18" s="24" t="s">
+      <c r="L18" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="M18" s="24">
-        <v>3.4</v>
+      <c r="M18" s="23">
+        <v>3.42</v>
       </c>
     </row>
     <row r="19" spans="5:13">
@@ -1561,10 +1564,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L19" s="25" t="s">
+      <c r="L19" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="M19" s="25">
+      <c r="M19" s="24">
         <v>3.37</v>
       </c>
     </row>
